--- a/PCP.xlsx
+++ b/PCP.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29721"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_81D1B939CD138887A02FF2A4BA1426384C02E6C9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0817061-7895-452E-A2A6-5A725E2BF70D}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_81D1B939CD138887A02FF2A4BA1426384C02E6C9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE9CD2C2-FE8E-4B55-A72E-B01B69EDF61F}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Continuité pédagogique" sheetId="1" r:id="rId1"/>
@@ -5575,7 +5575,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5612,6 +5612,12 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
+      <name val="Aptos Narrow"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -5634,12 +5640,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -5839,7 +5846,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -27684,8 +27691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D707"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" customHeight="1"/>
@@ -27920,7 +27927,7 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" t="s">
+      <c r="A21" s="5" t="s">
         <v>413</v>
       </c>
       <c r="B21" t="s">
